--- a/models2/excels3/TResnet.xlsx
+++ b/models2/excels3/TResnet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models2\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models2\excels3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7AAE2-E4AA-4D31-9A1C-8637384048E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0996550-A07C-4B5F-85B9-C63F94730BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="B2">
-        <v>4.3266788125038147E-2</v>
+        <v>1.564161479473114E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1266,24 +1266,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.75015419721603394</v>
+        <v>1.5745311975479129E-2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>7.940269261598587E-2</v>
+        <v>2.0892655476927761E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1294,38 +1294,38 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>1.5745311975479129E-2</v>
+        <v>2.1180318668484691E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>7.4170686304569244E-2</v>
+        <v>2.1252673119306561E-2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>0.1215997412800789</v>
+        <v>2.1361988037824631E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="B8">
-        <v>9.2749491333961487E-2</v>
+        <v>2.239230647683144E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1350,80 +1350,80 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="B9">
-        <v>0.43981719017028809</v>
+        <v>2.3166356608271599E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>0.86079108715057373</v>
+        <v>2.336320839822292E-2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="B11">
-        <v>0.867908775806427</v>
+        <v>2.474194206297398E-2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B12">
-        <v>0.77469867467880249</v>
+        <v>2.5180058553814891E-2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>5.931047722697258E-2</v>
+        <v>2.538478747010231E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="B14">
-        <v>0.13473960757255549</v>
+        <v>2.5956049561500549E-2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="B15">
-        <v>0.20915120840072629</v>
+        <v>2.664302475750446E-2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B16">
-        <v>2.0892655476927761E-2</v>
+        <v>3.0099015682935711E-2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>0.18012712895870209</v>
+        <v>3.0516346916556358E-2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="B18">
-        <v>4.1135478764772422E-2</v>
+        <v>3.1118361279368401E-2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1490,66 +1490,66 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>0.80405473709106445</v>
+        <v>3.1420651823282242E-2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>8.8318139314651489E-2</v>
+        <v>3.1539123505353928E-2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="B21">
-        <v>0.26578038930892939</v>
+        <v>3.2861795276403427E-2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>0.8305366039276123</v>
+        <v>3.3276457339525223E-2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>3.8129948079586029E-2</v>
+        <v>3.3586755394935608E-2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B24">
-        <v>0.64565551280975342</v>
+        <v>3.4283068031072617E-2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B25">
-        <v>4.1869897395372391E-2</v>
+        <v>3.4425616264343262E-2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="B26">
-        <v>0.38057407736778259</v>
+        <v>3.6299586296081543E-2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="B27">
-        <v>7.5142346322536469E-2</v>
+        <v>3.6568149924278259E-2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>0.16198436915874481</v>
+        <v>3.8081221282482147E-2</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>3.1539123505353928E-2</v>
+        <v>3.8129948079586029E-2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>6.1003871262073517E-2</v>
+        <v>3.8585886359214783E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1658,52 +1658,52 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B31">
-        <v>0.57474195957183838</v>
+        <v>3.9590485394001007E-2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>0.32467037439346308</v>
+        <v>4.0183912962675088E-2</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>0.81843888759613037</v>
+        <v>4.1135478764772422E-2</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="B34">
-        <v>9.9401786923408508E-2</v>
+        <v>4.133152961730957E-2</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1714,24 +1714,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B35">
-        <v>3.8585886359214783E-2</v>
+        <v>4.1684642434120178E-2</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="B36">
-        <v>3.1420651823282242E-2</v>
+        <v>4.1824903339147568E-2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1742,24 +1742,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>0.84394848346710205</v>
+        <v>4.1869897395372391E-2</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B38">
-        <v>0.33746066689491272</v>
+        <v>4.2272776365280151E-2</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1770,24 +1770,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="B39">
-        <v>0.66827666759490967</v>
+        <v>4.2655095458030701E-2</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="B40">
-        <v>0.2653593122959137</v>
+        <v>4.2781569063663483E-2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>0.56092387437820435</v>
+        <v>4.3266788125038147E-2</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="B42">
-        <v>6.5193407237529755E-2</v>
+        <v>4.3473299592733383E-2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1826,41 +1826,41 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B43">
-        <v>2.1252673119306561E-2</v>
+        <v>4.4124729931354523E-2</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="B44">
-        <v>0.67178583145141602</v>
+        <v>4.5864280313253403E-2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B45">
-        <v>0.83842974901199341</v>
+        <v>4.7395657747983932E-2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B46">
-        <v>0.83726882934570313</v>
+        <v>5.1784548908472061E-2</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1882,24 +1882,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B47">
-        <v>0.31692397594451899</v>
+        <v>5.2416633814573288E-2</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B48">
-        <v>0.12118767201900479</v>
+        <v>5.257875844836235E-2</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B49">
-        <v>0.39909020066261292</v>
+        <v>5.2954670041799552E-2</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="B50">
-        <v>0.37429943680763239</v>
+        <v>5.4070461541414261E-2</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B51">
-        <v>2.336320839822292E-2</v>
+        <v>5.4490141570568078E-2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1952,24 +1952,24 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>2.1180318668484691E-2</v>
+        <v>5.4952304810285568E-2</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B53">
-        <v>3.3586755394935608E-2</v>
+        <v>5.5819831788539893E-2</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1980,27 +1980,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="B54">
-        <v>5.9874888509511948E-2</v>
+        <v>5.5837459862232208E-2</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B55">
-        <v>0.80535483360290527</v>
+        <v>5.6065253913402557E-2</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="B56">
-        <v>0.81848126649856567</v>
+        <v>5.6184288114309311E-2</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2022,24 +2022,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="B57">
-        <v>4.0183912962675088E-2</v>
+        <v>5.6290172040462487E-2</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="B58">
-        <v>5.4952304810285568E-2</v>
+        <v>5.6485217064619057E-2</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2050,55 +2050,55 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B59">
-        <v>0.82050961256027222</v>
+        <v>5.6487452238798141E-2</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B60">
-        <v>0.84311270713806152</v>
+        <v>5.7774532586336143E-2</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B61">
-        <v>0.86498641967773438</v>
+        <v>5.7875696569681168E-2</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="B62">
-        <v>0.56002986431121826</v>
+        <v>5.8125101029872887E-2</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>0.23915146291255951</v>
+        <v>5.931047722697258E-2</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2120,38 +2120,38 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>5.2416633814573288E-2</v>
+        <v>5.9874888509511948E-2</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B65">
-        <v>0.83639729022979736</v>
+        <v>6.1003871262073517E-2</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B66">
-        <v>0.25842520594596857</v>
+        <v>6.1427082866430283E-2</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B67">
-        <v>7.9367771744728088E-2</v>
+        <v>6.4914382994174957E-2</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B68">
-        <v>7.4146464467048645E-2</v>
+        <v>6.5193407237529755E-2</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B69">
-        <v>0.3868405818939209</v>
+        <v>6.6634774208068848E-2</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="B70">
-        <v>0.21010187268257141</v>
+        <v>6.6814020276069641E-2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2218,24 +2218,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B71">
-        <v>0.83617323637008667</v>
+        <v>6.739480048418045E-2</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="B72">
-        <v>0.2477496862411499</v>
+        <v>6.841566413640976E-2</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="B73">
-        <v>0.21044257283210749</v>
+        <v>6.9223403930664063E-2</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="B74">
-        <v>0.1182140931487083</v>
+        <v>7.0541881024837494E-2</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>3.9590485394001007E-2</v>
+        <v>7.0932723581790924E-2</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2288,24 +2288,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B76">
-        <v>0.76340717077255249</v>
+        <v>7.1806661784648895E-2</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="B77">
-        <v>3.0516346916556358E-2</v>
+        <v>7.2208590805530548E-2</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="B78">
-        <v>0.79256248474121094</v>
+        <v>7.4000634253025055E-2</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B79">
-        <v>5.2954670041799552E-2</v>
+        <v>7.4146464467048645E-2</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>0.14285224676132199</v>
+        <v>7.4170686304569244E-2</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="B81">
-        <v>3.3276457339525223E-2</v>
+        <v>7.4333228170871735E-2</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2372,27 +2372,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="B82">
-        <v>3.8081221282482147E-2</v>
+        <v>7.464773952960968E-2</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B83">
-        <v>0.82103562355041504</v>
+        <v>7.4757196009159088E-2</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B84">
-        <v>0.80114728212356567</v>
+        <v>7.490142434835434E-2</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B85">
-        <v>5.4490141570568078E-2</v>
+        <v>7.5142346322536469E-2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B86">
-        <v>4.7395657747983932E-2</v>
+        <v>7.5256288051605225E-2</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>5.257875844836235E-2</v>
+        <v>7.8231155872344971E-2</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2456,24 +2456,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B88">
-        <v>4.1684642434120178E-2</v>
+        <v>7.9367771744728088E-2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>0.43673524260520941</v>
+        <v>7.940269261598587E-2</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B90">
-        <v>2.1361988037824631E-2</v>
+        <v>8.0456554889678955E-2</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2498,52 +2498,52 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B91">
-        <v>0.86565810441970825</v>
+        <v>8.0477304756641388E-2</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B92">
-        <v>0.12704792618751529</v>
+        <v>8.8318139314651489E-2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="B93">
-        <v>0.1027704030275345</v>
+        <v>9.2387087643146515E-2</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>0.44703266024589539</v>
+        <v>9.2749491333961487E-2</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B95">
-        <v>7.8231155872344971E-2</v>
+        <v>9.9401786923408508E-2</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2568,38 +2568,38 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>0.16597101092338559</v>
+        <v>0.1027704030275345</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="B97">
-        <v>7.4757196009159088E-2</v>
+        <v>0.10522856563329699</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B98">
-        <v>0.26977136731147772</v>
+        <v>0.1080768182873726</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="B99">
-        <v>0.50455784797668457</v>
+        <v>0.11123289167881011</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="B100">
-        <v>6.4914382994174957E-2</v>
+        <v>0.1148461624979973</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2638,24 +2638,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B101">
-        <v>0.83517283201217651</v>
+        <v>0.1182140931487083</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B102">
-        <v>0.18182070553302759</v>
+        <v>0.12118767201900479</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="B103">
-        <v>0.40375196933746338</v>
+        <v>0.1215997412800789</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2680,27 +2680,27 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="B104">
-        <v>5.7774532586336143E-2</v>
+        <v>0.1222420334815979</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="B105">
-        <v>0.60310518741607666</v>
+        <v>0.1250070333480835</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B106">
-        <v>0.84473490715026855</v>
+        <v>0.12616358697414401</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="B107">
-        <v>0.21200989186763761</v>
+        <v>0.126797154545784</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2736,13 +2736,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B108">
-        <v>0.79099440574645996</v>
+        <v>0.12704792618751529</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="B109">
-        <v>0.42765319347381592</v>
+        <v>0.12987737357616419</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2764,24 +2764,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>0.82247143983840942</v>
+        <v>0.13473960757255549</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="B111">
-        <v>6.1427082866430283E-2</v>
+        <v>0.13550157845020289</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2792,52 +2792,52 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="B112">
-        <v>0.42536991834640497</v>
+        <v>0.13768799602985379</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B113">
-        <v>0.81853789091110229</v>
+        <v>0.14285224676132199</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="B114">
-        <v>5.6065253913402557E-2</v>
+        <v>0.15581631660461431</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="B115">
-        <v>0.36377996206283569</v>
+        <v>0.15896101295948031</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B116">
-        <v>0.24463820457458499</v>
+        <v>0.16198436915874481</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B117">
-        <v>0.19190867245197299</v>
+        <v>0.1656218022108078</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B118">
-        <v>0.82369750738143921</v>
+        <v>0.16597101092338559</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="B119">
-        <v>0.28195476531982422</v>
+        <v>0.1691681295633316</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B120">
-        <v>7.490142434835434E-2</v>
+        <v>0.17097292840480799</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2918,83 +2918,83 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B121">
-        <v>7.0932723581790924E-2</v>
+        <v>0.17551702260971069</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B122">
-        <v>0.12616358697414401</v>
+        <v>0.18012712895870209</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B123">
-        <v>0.83440756797790527</v>
+        <v>0.18182070553302759</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="B124">
-        <v>0.89506077766418457</v>
+        <v>0.18348833918571469</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B125">
-        <v>0.88487547636032104</v>
+        <v>0.18984527885913849</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B126">
-        <v>0.76056909561157227</v>
+        <v>0.19190867245197299</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="B127">
-        <v>5.6487452238798141E-2</v>
+        <v>0.20915120840072629</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B128">
-        <v>7.5256288051605225E-2</v>
+        <v>0.21010187268257141</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B129">
-        <v>0.1080768182873726</v>
+        <v>0.21015205979347229</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3044,24 +3044,24 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B130">
-        <v>0.88910716772079468</v>
+        <v>0.21044257283210749</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B131">
-        <v>4.2272776365280151E-2</v>
+        <v>0.21200989186763761</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B132">
-        <v>8.0456554889678955E-2</v>
+        <v>0.23915146291255951</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3086,24 +3086,24 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="B133">
-        <v>6.739480048418045E-2</v>
+        <v>0.2411869615316391</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B134">
-        <v>7.464773952960968E-2</v>
+        <v>0.24463820457458499</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3114,13 +3114,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B135">
-        <v>0.8417966365814209</v>
+        <v>0.2477496862411499</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B136">
-        <v>0.49085742235183721</v>
+        <v>0.24984809756278989</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="B137">
-        <v>3.4283068031072617E-2</v>
+        <v>0.25842520594596857</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="B138">
-        <v>0.18984527885913849</v>
+        <v>0.25977513194084167</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3170,13 +3170,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B139">
-        <v>0.56482201814651489</v>
+        <v>0.2653593122959137</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3184,27 +3184,27 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B140">
-        <v>0.87670737504959106</v>
+        <v>0.26578038930892939</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B141">
-        <v>0.64111787080764771</v>
+        <v>0.26977136731147772</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3212,10 +3212,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B142">
-        <v>0.17097292840480799</v>
+        <v>0.27282765507698059</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3226,13 +3226,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="B143">
-        <v>0.80807369947433472</v>
+        <v>0.27674573659896851</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3240,24 +3240,24 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B144">
-        <v>0.47423467040061951</v>
+        <v>0.28195476531982422</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="B145">
-        <v>5.6290172040462487E-2</v>
+        <v>0.28500720858573908</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3268,13 +3268,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="B146">
-        <v>0.8505176305770874</v>
+        <v>0.28996062278747559</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="B147">
-        <v>0.84176194667816162</v>
+        <v>0.30595493316650391</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B148">
-        <v>6.6634774208068848E-2</v>
+        <v>0.31123661994934082</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3310,13 +3310,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="B149">
-        <v>0.83513933420181274</v>
+        <v>0.31692397594451899</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="B150">
-        <v>0.21015205979347229</v>
+        <v>0.32467037439346308</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B151">
-        <v>5.1784548908472061E-2</v>
+        <v>0.32711413502693182</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B152">
-        <v>7.4333228170871735E-2</v>
+        <v>0.33746066689491272</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B153">
-        <v>5.7875696569681168E-2</v>
+        <v>0.36377996206283569</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3380,13 +3380,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="B154">
-        <v>0.70302009582519531</v>
+        <v>0.37429943680763239</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3394,13 +3394,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="B155">
-        <v>0.83904671669006348</v>
+        <v>0.38057407736778259</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B156">
-        <v>2.5180058553814891E-2</v>
+        <v>0.3868405818939209</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="B157">
-        <v>4.1824903339147568E-2</v>
+        <v>0.39858654141426092</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3436,13 +3436,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B158">
-        <v>0.52640515565872192</v>
+        <v>0.39909020066261292</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B159">
-        <v>0.84997677803039551</v>
+        <v>0.40375196933746338</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3464,55 +3464,55 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="B160">
-        <v>3.4425616264343262E-2</v>
+        <v>0.41616368293762213</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="B161">
-        <v>2.538478747010231E-2</v>
+        <v>0.41681408882141108</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B162">
-        <v>0.8570486307144165</v>
+        <v>0.42536991834640497</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B163">
-        <v>0.75341129302978516</v>
+        <v>0.42765319347381592</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B164">
-        <v>0.85130411386489868</v>
+        <v>0.43673524260520941</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3534,13 +3534,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="B165">
-        <v>0.71567618846893311</v>
+        <v>0.43981719017028809</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3548,24 +3548,24 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="B166">
-        <v>0.58609163761138916</v>
+        <v>0.44249790906906128</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="B167">
-        <v>2.5956049561500549E-2</v>
+        <v>0.44703266024589539</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B168">
-        <v>7.2208590805530548E-2</v>
+        <v>0.44746583700180048</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B169">
-        <v>0.18348833918571469</v>
+        <v>0.45909181237220759</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="B170">
-        <v>0.1656218022108078</v>
+        <v>0.46685108542442322</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3618,66 +3618,66 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B171">
-        <v>4.2781569063663483E-2</v>
+        <v>0.47423467040061951</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B172">
-        <v>0.10522856563329699</v>
+        <v>0.4757782518863678</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B173">
-        <v>4.4124729931354523E-2</v>
+        <v>0.49085742235183721</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B174">
-        <v>0.1250070333480835</v>
+        <v>0.49243497848510742</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="B175">
-        <v>0.17551702260971069</v>
+        <v>0.49877187609672552</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3688,27 +3688,27 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="B176">
-        <v>0.67219716310501099</v>
+        <v>0.50455784797668457</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B177">
-        <v>6.9223403930664063E-2</v>
+        <v>0.52640515565872192</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="B178">
-        <v>6.6814020276069641E-2</v>
+        <v>0.54146063327789307</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3730,41 +3730,41 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="B179">
-        <v>3.2861795276403427E-2</v>
+        <v>0.56002986431121826</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="B180">
-        <v>0.66977763175964355</v>
+        <v>0.56092387437820435</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B181">
-        <v>0.15896101295948031</v>
+        <v>0.56482201814651489</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3772,41 +3772,41 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="B182">
-        <v>0.67662650346755981</v>
+        <v>0.47474195957183801</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B183">
-        <v>0.81117069721221924</v>
+        <v>0.48609163761138902</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="B184">
-        <v>0.32711413502693182</v>
+        <v>0.59056776762008667</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3814,13 +3814,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B185">
-        <v>4.3473299592733383E-2</v>
+        <v>0.59715282917022705</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="B187">
-        <v>0.86493164300918579</v>
+        <v>0.60310518741607666</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3856,27 +3856,27 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B188">
-        <v>0.85043591260910034</v>
+        <v>0.43884854316711402</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B189">
-        <v>0.31123661994934082</v>
+        <v>0.64111787080764771</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3884,13 +3884,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="B190">
-        <v>0.4757782518863678</v>
+        <v>0.64565551280975342</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3898,41 +3898,41 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="B191">
-        <v>3.6299586296081543E-2</v>
+        <v>0.44930087327957202</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B192">
-        <v>5.6184288114309311E-2</v>
+        <v>0.66562312841415405</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B193">
-        <v>5.5837459862232208E-2</v>
+        <v>0.66827666759490967</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B194">
-        <v>0.66562312841415405</v>
+        <v>0.66977763175964355</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3954,13 +3954,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="B195">
-        <v>0.6721082329750061</v>
+        <v>0.471785831451416</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3968,97 +3968,97 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196">
-        <v>7.1806661784648895E-2</v>
+        <v>0.372108232975006</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B197">
-        <v>0.30595493316650391</v>
+        <v>0.67219716310501099</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B198">
-        <v>0.83417725563049316</v>
+        <v>0.67662650346755981</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B199">
-        <v>0.63884854316711426</v>
+        <v>0.70302009582519531</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="B200">
-        <v>0.44746583700180048</v>
+        <v>0.71250849962234497</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B201">
-        <v>4.5864280313253403E-2</v>
+        <v>0.71567618846893311</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="B202">
-        <v>5.6485217064619057E-2</v>
+        <v>0.71821331977844238</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -4066,13 +4066,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="B203">
-        <v>1.564161479473114E-2</v>
+        <v>0.72623872756958008</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B204">
-        <v>0.85527211427688599</v>
+        <v>0.7346985936164856</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B205">
-        <v>0.847126305103302</v>
+        <v>0.73928475379943848</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -4108,27 +4108,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B206">
-        <v>3.0099015682935711E-2</v>
+        <v>0.74624329805374146</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="B207">
-        <v>0.45909181237220759</v>
+        <v>0.75015419721603394</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -4136,13 +4136,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B208">
-        <v>0.12987737357616419</v>
+        <v>0.75341129302978516</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4150,13 +4150,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="B209">
-        <v>8.0477304756641388E-2</v>
+        <v>0.76056909561157227</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4164,13 +4164,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B210">
-        <v>0.1222420334815979</v>
+        <v>0.76078885793685913</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -4178,83 +4178,83 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B211">
-        <v>0.87240076065063477</v>
+        <v>0.76151835918426514</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="B212">
-        <v>2.239230647683144E-2</v>
+        <v>0.76340717077255249</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="B213">
-        <v>0.11123289167881011</v>
+        <v>0.77469867467880249</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B214">
-        <v>0.7346985936164856</v>
+        <v>0.78209871053695679</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B215">
-        <v>5.4070461541414261E-2</v>
+        <v>0.7865031361579895</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="B216">
-        <v>5.8125101029872887E-2</v>
+        <v>0.79099440574645996</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="B217">
-        <v>0.13550157845020289</v>
+        <v>0.79256248474121094</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="B218">
-        <v>0.89311075210571289</v>
+        <v>0.80114728212356567</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,27 +4304,27 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="B220">
-        <v>5.5819831788539893E-2</v>
+        <v>0.80405473709106445</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="B221">
-        <v>0.126797154545784</v>
+        <v>0.80535483360290527</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4332,55 +4332,55 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B222">
-        <v>0.59056776762008667</v>
+        <v>0.80717003345489502</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="B223">
-        <v>0.86136382818222046</v>
+        <v>0.80807369947433472</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="B224">
-        <v>0.8330308198928833</v>
+        <v>0.81117069721221924</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="B225">
-        <v>0.49243497848510742</v>
+        <v>0.81130951642990112</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4388,13 +4388,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B226">
-        <v>2.3166356608271599E-2</v>
+        <v>0.81477522850036621</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -4402,38 +4402,38 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="B227">
-        <v>0.27674573659896851</v>
+        <v>0.81843888759613037</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="B228">
-        <v>0.7865031361579895</v>
+        <v>0.81848126649856567</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B229">
-        <v>0.73928475379943848</v>
+        <v>0.81853789091110229</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4444,24 +4444,24 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="B230">
-        <v>0.54146063327789307</v>
+        <v>0.82050961256027222</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="B231">
-        <v>0.76151835918426514</v>
+        <v>0.82103562355041504</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4472,38 +4472,38 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="B232">
-        <v>2.474194206297398E-2</v>
+        <v>0.82247143983840942</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="B233">
-        <v>0.59715282917022705</v>
+        <v>0.82369750738143921</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B234">
-        <v>0.80717003345489502</v>
+        <v>0.82938164472579956</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4514,24 +4514,24 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="B235">
-        <v>7.0541881024837494E-2</v>
+        <v>0.8305366039276123</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B236">
-        <v>0.64930087327957153</v>
+        <v>0.8330308198928833</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4542,27 +4542,27 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B237">
-        <v>0.39858654141426092</v>
+        <v>0.83417725563049316</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="B238">
-        <v>0.49877187609672552</v>
+        <v>0.83440756797790527</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -4570,69 +4570,69 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B239">
-        <v>0.2411869615316391</v>
+        <v>0.83513933420181274</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="B240">
-        <v>0.28500720858573908</v>
+        <v>0.83517283201217651</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="B241">
-        <v>7.4000634253025055E-2</v>
+        <v>0.83617323637008667</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="B242">
-        <v>0.87071651220321655</v>
+        <v>0.83639729022979736</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="B243">
-        <v>0.44249790906906128</v>
+        <v>0.83726882934570313</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="B244">
-        <v>0.81477522850036621</v>
+        <v>0.83842974901199341</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="B245">
-        <v>0.78209871053695679</v>
+        <v>0.83904671669006348</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="B246">
-        <v>0.13768799602985379</v>
+        <v>0.84176194667816162</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="B247">
-        <v>0.71821331977844238</v>
+        <v>0.8417966365814209</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="B248">
-        <v>0.82938164472579956</v>
+        <v>0.84311270713806152</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4710,41 +4710,41 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="B249">
-        <v>0.27282765507698059</v>
+        <v>0.84394848346710205</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="B250">
-        <v>0.72623872756958008</v>
+        <v>0.84473490715026855</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="B251">
-        <v>9.2387087643146515E-2</v>
+        <v>0.847126305103302</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="B252">
-        <v>2.664302475750446E-2</v>
+        <v>0.84997677803039551</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -4766,24 +4766,24 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="B253">
-        <v>0.71250849962234497</v>
+        <v>0.85043591260910034</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="B254">
-        <v>0.81130951642990112</v>
+        <v>0.8505176305770874</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4794,27 +4794,27 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="B255">
-        <v>0.88882136344909668</v>
+        <v>0.85130411386489868</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="B256">
-        <v>0.24984809756278989</v>
+        <v>0.85527211427688599</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -4822,16 +4822,16 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="B257">
-        <v>0.88656359910964966</v>
+        <v>0.8570486307144165</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,24 +4850,24 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="B259">
-        <v>0.1148461624979973</v>
+        <v>0.86079108715057373</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B260">
-        <v>0.76078885793685913</v>
+        <v>0.86136382818222046</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -4878,13 +4878,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="B261">
-        <v>0.46685108542442322</v>
+        <v>0.86493164300918579</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4892,38 +4892,38 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="B262">
-        <v>0.25977513194084167</v>
+        <v>0.86498641967773438</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="B263">
-        <v>0.1691681295633316</v>
+        <v>0.86565810441970825</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="B264">
-        <v>0.88257330656051636</v>
+        <v>0.867908775806427</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -4934,80 +4934,80 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B265">
-        <v>0.28996062278747559</v>
+        <v>0.87071651220321655</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B266">
-        <v>6.841566413640976E-2</v>
+        <v>0.87240076065063477</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="B267">
-        <v>0.89349186420440674</v>
+        <v>0.87670737504959106</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B268">
-        <v>0.41681408882141108</v>
+        <v>0.88257330656051636</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="B269">
-        <v>3.1118361279368401E-2</v>
+        <v>0.88487547636032104</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B270">
-        <v>0.74624329805374146</v>
+        <v>0.88656359910964966</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -5018,75 +5018,78 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B271">
-        <v>3.6568149924278259E-2</v>
+        <v>0.88882136344909668</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="B272">
-        <v>4.133152961730957E-2</v>
+        <v>0.88910716772079468</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="B273">
-        <v>4.2655095458030701E-2</v>
+        <v>0.89311075210571289</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B274">
-        <v>0.15581631660461431</v>
+        <v>0.89349186420440674</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="B275">
-        <v>0.41616368293762213</v>
+        <v>0.89506077766418457</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D275">
+    <sortCondition ref="B251:B275"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
